--- a/src/main/resources/Plate-Template.xlsx
+++ b/src/main/resources/Plate-Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -785,11 +785,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,7 +1068,7 @@
   <dimension ref="A1:IG241"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,1932 +1077,1932 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="1">
         <v>25</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="1">
         <v>27</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="1">
         <v>28</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="1">
         <v>29</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="1">
         <v>30</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="1">
         <v>31</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="1">
         <v>32</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="1">
         <v>33</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="1">
         <v>35</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="1">
         <v>36</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="1">
         <v>37</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="1">
         <v>38</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="1">
         <v>39</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AO1" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AP1" s="1">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AQ1" s="1">
         <v>42</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AR1" s="1">
         <v>43</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AS1" s="1">
         <v>44</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AT1" s="1">
         <v>45</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AU1" s="1">
         <v>46</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AV1" s="1">
         <v>47</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="1">
         <v>48</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AX1" s="1">
         <v>49</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AY1" s="1">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="1">
         <v>51</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="1">
         <v>52</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BB1" s="1">
         <v>53</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BC1" s="1">
         <v>54</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BD1" s="1">
         <v>55</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BE1" s="1">
         <v>56</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BF1" s="1">
         <v>57</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="1">
         <v>58</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BH1" s="1">
         <v>59</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="1">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="1">
         <v>61</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="BK1" s="1">
         <v>62</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="BL1" s="1">
         <v>63</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="BM1" s="1">
         <v>64</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BN1" s="1">
         <v>65</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BO1" s="1">
         <v>66</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BP1" s="1">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="BQ1" s="1">
         <v>68</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BR1" s="1">
         <v>69</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="BS1" s="1">
         <v>70</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BT1" s="1">
         <v>71</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BU1" s="1">
         <v>72</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BV1" s="1">
         <v>73</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BW1" s="1">
         <v>74</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BX1" s="1">
         <v>75</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="BY1" s="1">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="BZ1" s="1">
         <v>77</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CA1" s="1">
         <v>78</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CB1" s="1">
         <v>79</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CC1" s="1">
         <v>80</v>
       </c>
-      <c r="CD1" s="2">
+      <c r="CD1" s="1">
         <v>81</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="CE1" s="1">
         <v>82</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="CF1" s="1">
         <v>83</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="CG1" s="1">
         <v>84</v>
       </c>
-      <c r="CH1" s="2">
+      <c r="CH1" s="1">
         <v>85</v>
       </c>
-      <c r="CI1" s="2">
+      <c r="CI1" s="1">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2">
+      <c r="CJ1" s="1">
         <v>87</v>
       </c>
-      <c r="CK1" s="2">
+      <c r="CK1" s="1">
         <v>88</v>
       </c>
-      <c r="CL1" s="2">
+      <c r="CL1" s="1">
         <v>89</v>
       </c>
-      <c r="CM1" s="2">
+      <c r="CM1" s="1">
         <v>90</v>
       </c>
-      <c r="CN1" s="2">
+      <c r="CN1" s="1">
         <v>91</v>
       </c>
-      <c r="CO1" s="2">
+      <c r="CO1" s="1">
         <v>92</v>
       </c>
-      <c r="CP1" s="2">
+      <c r="CP1" s="1">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2">
+      <c r="CQ1" s="1">
         <v>94</v>
       </c>
-      <c r="CR1" s="2">
+      <c r="CR1" s="1">
         <v>95</v>
       </c>
-      <c r="CS1" s="2">
+      <c r="CS1" s="1">
         <v>96</v>
       </c>
-      <c r="CT1" s="2">
+      <c r="CT1" s="1">
         <v>97</v>
       </c>
-      <c r="CU1" s="2">
+      <c r="CU1" s="1">
         <v>98</v>
       </c>
-      <c r="CV1" s="2">
+      <c r="CV1" s="1">
         <v>99</v>
       </c>
-      <c r="CW1" s="2">
+      <c r="CW1" s="1">
         <v>100</v>
       </c>
-      <c r="CX1" s="2">
+      <c r="CX1" s="1">
         <v>101</v>
       </c>
-      <c r="CY1" s="2">
+      <c r="CY1" s="1">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2">
+      <c r="CZ1" s="1">
         <v>103</v>
       </c>
-      <c r="DA1" s="2">
+      <c r="DA1" s="1">
         <v>104</v>
       </c>
-      <c r="DB1" s="2">
+      <c r="DB1" s="1">
         <v>105</v>
       </c>
-      <c r="DC1" s="2">
+      <c r="DC1" s="1">
         <v>106</v>
       </c>
-      <c r="DD1" s="2">
+      <c r="DD1" s="1">
         <v>107</v>
       </c>
-      <c r="DE1" s="2">
+      <c r="DE1" s="1">
         <v>108</v>
       </c>
-      <c r="DF1" s="2">
+      <c r="DF1" s="1">
         <v>109</v>
       </c>
-      <c r="DG1" s="2">
+      <c r="DG1" s="1">
         <v>110</v>
       </c>
-      <c r="DH1" s="2">
+      <c r="DH1" s="1">
         <v>111</v>
       </c>
-      <c r="DI1" s="2">
+      <c r="DI1" s="1">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2">
+      <c r="DJ1" s="1">
         <v>113</v>
       </c>
-      <c r="DK1" s="2">
+      <c r="DK1" s="1">
         <v>114</v>
       </c>
-      <c r="DL1" s="2">
+      <c r="DL1" s="1">
         <v>115</v>
       </c>
-      <c r="DM1" s="2">
+      <c r="DM1" s="1">
         <v>116</v>
       </c>
-      <c r="DN1" s="2">
+      <c r="DN1" s="1">
         <v>117</v>
       </c>
-      <c r="DO1" s="2">
+      <c r="DO1" s="1">
         <v>118</v>
       </c>
-      <c r="DP1" s="2">
+      <c r="DP1" s="1">
         <v>119</v>
       </c>
-      <c r="DQ1" s="2">
+      <c r="DQ1" s="1">
         <v>120</v>
       </c>
-      <c r="DR1" s="2">
+      <c r="DR1" s="1">
         <v>121</v>
       </c>
-      <c r="DS1" s="2">
+      <c r="DS1" s="1">
         <v>122</v>
       </c>
-      <c r="DT1" s="2">
+      <c r="DT1" s="1">
         <v>123</v>
       </c>
-      <c r="DU1" s="2">
+      <c r="DU1" s="1">
         <v>124</v>
       </c>
-      <c r="DV1" s="2">
+      <c r="DV1" s="1">
         <v>125</v>
       </c>
-      <c r="DW1" s="2">
+      <c r="DW1" s="1">
         <v>126</v>
       </c>
-      <c r="DX1" s="2">
+      <c r="DX1" s="1">
         <v>127</v>
       </c>
-      <c r="DY1" s="2">
+      <c r="DY1" s="1">
         <v>128</v>
       </c>
-      <c r="DZ1" s="2">
+      <c r="DZ1" s="1">
         <v>129</v>
       </c>
-      <c r="EA1" s="2">
+      <c r="EA1" s="1">
         <v>130</v>
       </c>
-      <c r="EB1" s="2">
+      <c r="EB1" s="1">
         <v>131</v>
       </c>
-      <c r="EC1" s="2">
+      <c r="EC1" s="1">
         <v>132</v>
       </c>
-      <c r="ED1" s="2">
+      <c r="ED1" s="1">
         <v>133</v>
       </c>
-      <c r="EE1" s="2">
+      <c r="EE1" s="1">
         <v>134</v>
       </c>
-      <c r="EF1" s="2">
+      <c r="EF1" s="1">
         <v>135</v>
       </c>
-      <c r="EG1" s="2">
+      <c r="EG1" s="1">
         <v>136</v>
       </c>
-      <c r="EH1" s="2">
+      <c r="EH1" s="1">
         <v>137</v>
       </c>
-      <c r="EI1" s="2">
+      <c r="EI1" s="1">
         <v>138</v>
       </c>
-      <c r="EJ1" s="2">
+      <c r="EJ1" s="1">
         <v>139</v>
       </c>
-      <c r="EK1" s="2">
+      <c r="EK1" s="1">
         <v>140</v>
       </c>
-      <c r="EL1" s="2">
+      <c r="EL1" s="1">
         <v>141</v>
       </c>
-      <c r="EM1" s="2">
+      <c r="EM1" s="1">
         <v>142</v>
       </c>
-      <c r="EN1" s="2">
+      <c r="EN1" s="1">
         <v>143</v>
       </c>
-      <c r="EO1" s="2">
+      <c r="EO1" s="1">
         <v>144</v>
       </c>
-      <c r="EP1" s="2">
+      <c r="EP1" s="1">
         <v>145</v>
       </c>
-      <c r="EQ1" s="2">
+      <c r="EQ1" s="1">
         <v>146</v>
       </c>
-      <c r="ER1" s="2">
+      <c r="ER1" s="1">
         <v>147</v>
       </c>
-      <c r="ES1" s="2">
+      <c r="ES1" s="1">
         <v>148</v>
       </c>
-      <c r="ET1" s="2">
+      <c r="ET1" s="1">
         <v>149</v>
       </c>
-      <c r="EU1" s="2">
+      <c r="EU1" s="1">
         <v>150</v>
       </c>
-      <c r="EV1" s="2">
+      <c r="EV1" s="1">
         <v>151</v>
       </c>
-      <c r="EW1" s="2">
+      <c r="EW1" s="1">
         <v>152</v>
       </c>
-      <c r="EX1" s="2">
+      <c r="EX1" s="1">
         <v>153</v>
       </c>
-      <c r="EY1" s="2">
+      <c r="EY1" s="1">
         <v>154</v>
       </c>
-      <c r="EZ1" s="2">
+      <c r="EZ1" s="1">
         <v>155</v>
       </c>
-      <c r="FA1" s="2">
+      <c r="FA1" s="1">
         <v>156</v>
       </c>
-      <c r="FB1" s="2">
+      <c r="FB1" s="1">
         <v>157</v>
       </c>
-      <c r="FC1" s="2">
+      <c r="FC1" s="1">
         <v>158</v>
       </c>
-      <c r="FD1" s="2">
+      <c r="FD1" s="1">
         <v>159</v>
       </c>
-      <c r="FE1" s="2">
+      <c r="FE1" s="1">
         <v>160</v>
       </c>
-      <c r="FF1" s="2">
+      <c r="FF1" s="1">
         <v>161</v>
       </c>
-      <c r="FG1" s="2">
+      <c r="FG1" s="1">
         <v>162</v>
       </c>
-      <c r="FH1" s="2">
+      <c r="FH1" s="1">
         <v>163</v>
       </c>
-      <c r="FI1" s="2">
+      <c r="FI1" s="1">
         <v>164</v>
       </c>
-      <c r="FJ1" s="2">
+      <c r="FJ1" s="1">
         <v>165</v>
       </c>
-      <c r="FK1" s="2">
+      <c r="FK1" s="1">
         <v>166</v>
       </c>
-      <c r="FL1" s="2">
+      <c r="FL1" s="1">
         <v>167</v>
       </c>
-      <c r="FM1" s="2">
+      <c r="FM1" s="1">
         <v>168</v>
       </c>
-      <c r="FN1" s="2">
+      <c r="FN1" s="1">
         <v>169</v>
       </c>
-      <c r="FO1" s="2">
+      <c r="FO1" s="1">
         <v>170</v>
       </c>
-      <c r="FP1" s="2">
+      <c r="FP1" s="1">
         <v>171</v>
       </c>
-      <c r="FQ1" s="2">
+      <c r="FQ1" s="1">
         <v>172</v>
       </c>
-      <c r="FR1" s="2">
+      <c r="FR1" s="1">
         <v>173</v>
       </c>
-      <c r="FS1" s="2">
+      <c r="FS1" s="1">
         <v>174</v>
       </c>
-      <c r="FT1" s="2">
+      <c r="FT1" s="1">
         <v>175</v>
       </c>
-      <c r="FU1" s="2">
+      <c r="FU1" s="1">
         <v>176</v>
       </c>
-      <c r="FV1" s="2">
+      <c r="FV1" s="1">
         <v>177</v>
       </c>
-      <c r="FW1" s="2">
+      <c r="FW1" s="1">
         <v>178</v>
       </c>
-      <c r="FX1" s="2">
+      <c r="FX1" s="1">
         <v>179</v>
       </c>
-      <c r="FY1" s="2">
+      <c r="FY1" s="1">
         <v>180</v>
       </c>
-      <c r="FZ1" s="2">
+      <c r="FZ1" s="1">
         <v>181</v>
       </c>
-      <c r="GA1" s="2">
+      <c r="GA1" s="1">
         <v>182</v>
       </c>
-      <c r="GB1" s="2">
+      <c r="GB1" s="1">
         <v>183</v>
       </c>
-      <c r="GC1" s="2">
+      <c r="GC1" s="1">
         <v>184</v>
       </c>
-      <c r="GD1" s="2">
+      <c r="GD1" s="1">
         <v>185</v>
       </c>
-      <c r="GE1" s="2">
+      <c r="GE1" s="1">
         <v>186</v>
       </c>
-      <c r="GF1" s="2">
+      <c r="GF1" s="1">
         <v>187</v>
       </c>
-      <c r="GG1" s="2">
+      <c r="GG1" s="1">
         <v>188</v>
       </c>
-      <c r="GH1" s="2">
+      <c r="GH1" s="1">
         <v>189</v>
       </c>
-      <c r="GI1" s="2">
+      <c r="GI1" s="1">
         <v>190</v>
       </c>
-      <c r="GJ1" s="2">
+      <c r="GJ1" s="1">
         <v>191</v>
       </c>
-      <c r="GK1" s="2">
+      <c r="GK1" s="1">
         <v>192</v>
       </c>
-      <c r="GL1" s="2">
+      <c r="GL1" s="1">
         <v>193</v>
       </c>
-      <c r="GM1" s="2">
+      <c r="GM1" s="1">
         <v>194</v>
       </c>
-      <c r="GN1" s="2">
+      <c r="GN1" s="1">
         <v>195</v>
       </c>
-      <c r="GO1" s="2">
+      <c r="GO1" s="1">
         <v>196</v>
       </c>
-      <c r="GP1" s="2">
+      <c r="GP1" s="1">
         <v>197</v>
       </c>
-      <c r="GQ1" s="2">
+      <c r="GQ1" s="1">
         <v>198</v>
       </c>
-      <c r="GR1" s="2">
+      <c r="GR1" s="1">
         <v>199</v>
       </c>
-      <c r="GS1" s="2">
+      <c r="GS1" s="1">
         <v>200</v>
       </c>
-      <c r="GT1" s="2">
+      <c r="GT1" s="1">
         <v>201</v>
       </c>
-      <c r="GU1" s="2">
+      <c r="GU1" s="1">
         <v>202</v>
       </c>
-      <c r="GV1" s="2">
+      <c r="GV1" s="1">
         <v>203</v>
       </c>
-      <c r="GW1" s="2">
+      <c r="GW1" s="1">
         <v>204</v>
       </c>
-      <c r="GX1" s="2">
+      <c r="GX1" s="1">
         <v>205</v>
       </c>
-      <c r="GY1" s="2">
+      <c r="GY1" s="1">
         <v>206</v>
       </c>
-      <c r="GZ1" s="2">
+      <c r="GZ1" s="1">
         <v>207</v>
       </c>
-      <c r="HA1" s="2">
+      <c r="HA1" s="1">
         <v>208</v>
       </c>
-      <c r="HB1" s="2">
+      <c r="HB1" s="1">
         <v>209</v>
       </c>
-      <c r="HC1" s="2">
+      <c r="HC1" s="1">
         <v>210</v>
       </c>
-      <c r="HD1" s="2">
+      <c r="HD1" s="1">
         <v>211</v>
       </c>
-      <c r="HE1" s="2">
+      <c r="HE1" s="1">
         <v>212</v>
       </c>
-      <c r="HF1" s="2">
+      <c r="HF1" s="1">
         <v>213</v>
       </c>
-      <c r="HG1" s="2">
+      <c r="HG1" s="1">
         <v>214</v>
       </c>
-      <c r="HH1" s="2">
+      <c r="HH1" s="1">
         <v>215</v>
       </c>
-      <c r="HI1" s="2">
+      <c r="HI1" s="1">
         <v>216</v>
       </c>
-      <c r="HJ1" s="2">
+      <c r="HJ1" s="1">
         <v>217</v>
       </c>
-      <c r="HK1" s="2">
+      <c r="HK1" s="1">
         <v>218</v>
       </c>
-      <c r="HL1" s="2">
+      <c r="HL1" s="1">
         <v>219</v>
       </c>
-      <c r="HM1" s="2">
+      <c r="HM1" s="1">
         <v>220</v>
       </c>
-      <c r="HN1" s="2">
+      <c r="HN1" s="1">
         <v>221</v>
       </c>
-      <c r="HO1" s="2">
+      <c r="HO1" s="1">
         <v>222</v>
       </c>
-      <c r="HP1" s="2">
+      <c r="HP1" s="1">
         <v>223</v>
       </c>
-      <c r="HQ1" s="2">
+      <c r="HQ1" s="1">
         <v>224</v>
       </c>
-      <c r="HR1" s="2">
+      <c r="HR1" s="1">
         <v>225</v>
       </c>
-      <c r="HS1" s="2">
+      <c r="HS1" s="1">
         <v>226</v>
       </c>
-      <c r="HT1" s="2">
+      <c r="HT1" s="1">
         <v>227</v>
       </c>
-      <c r="HU1" s="2">
+      <c r="HU1" s="1">
         <v>228</v>
       </c>
-      <c r="HV1" s="2">
+      <c r="HV1" s="1">
         <v>229</v>
       </c>
-      <c r="HW1" s="2">
+      <c r="HW1" s="1">
         <v>230</v>
       </c>
-      <c r="HX1" s="2">
+      <c r="HX1" s="1">
         <v>231</v>
       </c>
-      <c r="HY1" s="2">
+      <c r="HY1" s="1">
         <v>232</v>
       </c>
-      <c r="HZ1" s="2">
+      <c r="HZ1" s="1">
         <v>233</v>
       </c>
-      <c r="IA1" s="2">
+      <c r="IA1" s="1">
         <v>234</v>
       </c>
-      <c r="IB1" s="2">
+      <c r="IB1" s="1">
         <v>235</v>
       </c>
-      <c r="IC1" s="2">
+      <c r="IC1" s="1">
         <v>236</v>
       </c>
-      <c r="ID1" s="2">
+      <c r="ID1" s="1">
         <v>237</v>
       </c>
-      <c r="IE1" s="2">
+      <c r="IE1" s="1">
         <v>238</v>
       </c>
-      <c r="IF1" s="2">
+      <c r="IF1" s="1">
         <v>239</v>
       </c>
-      <c r="IG1" s="2">
+      <c r="IG1" s="1">
         <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:241" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>